--- a/Saurabh_WebScrape/9news-Security/9news_Security_List.xlsx
+++ b/Saurabh_WebScrape/9news-Security/9news_Security_List.xlsx
@@ -28,7 +28,7 @@
     <t>News</t>
   </si>
   <si>
-    <t>16 hours ago</t>
+    <t>17 hours ago</t>
   </si>
   <si>
     <t>2:26pm Sep 23, 2020</t>

--- a/Saurabh_WebScrape/9news-Security/9news_Security_List.xlsx
+++ b/Saurabh_WebScrape/9news-Security/9news_Security_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="160">
   <si>
     <t>Date</t>
   </si>
@@ -188,9 +188,6 @@
   </si>
   <si>
     <t>Victoria</t>
-  </si>
-  <si>
-    <t>Outside Australia</t>
   </si>
   <si>
     <t>South Australia</t>
@@ -882,10 +879,10 @@
         <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -896,10 +893,10 @@
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -910,10 +907,10 @@
         <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -924,10 +921,10 @@
         <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -938,38 +935,32 @@
         <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
-        <v>58</v>
-      </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
-        <v>58</v>
-      </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -980,38 +971,32 @@
         <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
-        <v>58</v>
-      </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
-        <v>58</v>
-      </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1022,10 +1007,10 @@
         <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1036,10 +1021,10 @@
         <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1050,24 +1035,21 @@
         <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" t="s">
-        <v>58</v>
-      </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1078,24 +1060,21 @@
         <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" t="s">
-        <v>58</v>
-      </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1103,13 +1082,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1117,27 +1096,24 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B20" t="s">
-        <v>58</v>
-      </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1148,24 +1124,21 @@
         <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B22" t="s">
-        <v>58</v>
-      </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1176,10 +1149,10 @@
         <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1190,10 +1163,10 @@
         <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1204,24 +1177,21 @@
         <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>28</v>
       </c>
-      <c r="B26" t="s">
-        <v>58</v>
-      </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1232,24 +1202,21 @@
         <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>30</v>
       </c>
-      <c r="B28" t="s">
-        <v>58</v>
-      </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1257,41 +1224,35 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>32</v>
       </c>
-      <c r="B30" t="s">
-        <v>58</v>
-      </c>
       <c r="C30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>33</v>
       </c>
-      <c r="B31" t="s">
-        <v>58</v>
-      </c>
       <c r="C31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1302,38 +1263,32 @@
         <v>55</v>
       </c>
       <c r="C32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>35</v>
       </c>
-      <c r="B33" t="s">
-        <v>58</v>
-      </c>
       <c r="C33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>36</v>
       </c>
-      <c r="B34" t="s">
-        <v>58</v>
-      </c>
       <c r="C34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1341,13 +1296,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1358,24 +1313,21 @@
         <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>39</v>
       </c>
-      <c r="B37" t="s">
-        <v>58</v>
-      </c>
       <c r="C37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1386,10 +1338,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1400,24 +1352,21 @@
         <v>57</v>
       </c>
       <c r="C39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>42</v>
       </c>
-      <c r="B40" t="s">
-        <v>58</v>
-      </c>
       <c r="C40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1428,10 +1377,10 @@
         <v>54</v>
       </c>
       <c r="C41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D41" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1442,10 +1391,10 @@
         <v>55</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1456,24 +1405,21 @@
         <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>46</v>
       </c>
-      <c r="B44" t="s">
-        <v>58</v>
-      </c>
       <c r="C44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D44" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1484,10 +1430,10 @@
         <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D45" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1498,10 +1444,10 @@
         <v>57</v>
       </c>
       <c r="C46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D46" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1512,24 +1458,21 @@
         <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D47" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>50</v>
       </c>
-      <c r="B48" t="s">
-        <v>58</v>
-      </c>
       <c r="C48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D48" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1540,24 +1483,21 @@
         <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D49" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>52</v>
       </c>
-      <c r="B50" t="s">
-        <v>58</v>
-      </c>
       <c r="C50" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D50" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1568,10 +1508,10 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
